--- a/data/trans_orig/P33_1_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P33_1_2023-Estudios-trans_orig.xlsx
@@ -561,7 +561,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>6,91</t>
+          <t>6,9</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>6,98; 7,17</t>
+          <t>6,98; 7,18</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>6,84; 6,99</t>
+          <t>6,82; 6,98</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>6,91; 7,04</t>
+          <t>6,91; 7,03</t>
         </is>
       </c>
     </row>
@@ -606,12 +606,12 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>7,19</t>
+          <t>7,26</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>7,0</t>
+          <t>6,94</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>7,14; 7,26</t>
+          <t>7,16; 7,49</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>6,81; 7,07</t>
+          <t>6,63; 7,05</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>7,0; 7,15</t>
+          <t>6,96; 7,24</t>
         </is>
       </c>
     </row>
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>7,0</t>
+          <t>6,99</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
+          <t>6,98</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>6,99</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>7,0</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>6,92; 7,08</t>
+          <t>6,9; 7,07</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>6,92; 7,07</t>
+          <t>6,91; 7,06</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>6,94; 7,06</t>
+          <t>6,93; 7,05</t>
         </is>
       </c>
     </row>
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>7,13</t>
+          <t>7,18</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>6,98</t>
+          <t>6,94</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>7,05</t>
+          <t>7,06</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>7,09; 7,18</t>
+          <t>7,11; 7,37</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>6,87; 7,02</t>
+          <t>6,75; 7,01</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>6,99; 7,09</t>
+          <t>6,97; 7,16</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/P33_1_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P33_1_2023-Estudios-trans_orig.xlsx
@@ -579,7 +579,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>6,98; 7,18</t>
+          <t>6,97; 7,17</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -629,12 +629,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>7,16; 7,49</t>
+          <t>7,15; 7,55</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>6,63; 7,05</t>
+          <t>6,68; 7,05</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -679,7 +679,7 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>6,9; 7,07</t>
+          <t>6,9; 7,08</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -689,7 +689,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>6,93; 7,05</t>
+          <t>6,93; 7,04</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>7,11; 7,37</t>
+          <t>7,11; 7,38</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>6,75; 7,01</t>
+          <t>6,77; 7,01</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>6,97; 7,16</t>
+          <t>6,97; 7,15</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/P33_1_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P33_1_2023-Estudios-trans_orig.xlsx
@@ -497,7 +497,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población según las horas que duerme habitualmente al día y entre semana</t>
+          <t>Número medio de horas que duerme habitualmente al día entre semana</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
